--- a/4_classification&evaluation/output/evaluation_svm_pca.xlsx
+++ b/4_classification&evaluation/output/evaluation_svm_pca.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8829721362229103</v>
+        <v>0.8905744754041969</v>
       </c>
       <c r="C2" t="n">
-        <v>0.907843137254902</v>
+        <v>0.8960784313725491</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8922756981580511</v>
+        <v>0.8910058568882098</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8403208020050126</v>
+        <v>0.8308471177944863</v>
       </c>
       <c r="C3" t="n">
         <v>0.8799999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8565546648473477</v>
+        <v>0.8519392802319631</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8126915113871636</v>
+        <v>0.8075983436853003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9157894736842106</v>
+        <v>0.9157894736842105</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8603296703296703</v>
+        <v>0.8571121901354459</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8548809523809524</v>
+        <v>0.8150000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>0.8102941176470587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8283312754025827</v>
+        <v>0.8111998361998362</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9336300309597523</v>
+        <v>0.9169423558897243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7742857142857142</v>
+        <v>0.7352380952380952</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8441525760101612</v>
+        <v>0.8128557063851183</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_svm_pca.xlsx
+++ b/4_classification&evaluation/output/evaluation_svm_pca.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8905744754041969</v>
+        <v>0.855280357757138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8960784313725491</v>
+        <v>0.8836601307189543</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8910058568882098</v>
+        <v>0.868814192343604</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8308471177944863</v>
+        <v>0.8261327561327562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.8489473684210527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8519392802319631</v>
+        <v>0.8359820282413348</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8075983436853003</v>
+        <v>0.8305627705627707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9157894736842105</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8571121901354459</v>
+        <v>0.8755659787367105</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8150000000000001</v>
+        <v>0.8241946778711483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8102941176470587</v>
+        <v>0.7970588235294118</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8111998361998362</v>
+        <v>0.8083836467138175</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9169423558897243</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7352380952380952</v>
+        <v>0.7852380952380952</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8128557063851183</v>
+        <v>0.8471605208447313</v>
       </c>
     </row>
   </sheetData>
